--- a/www/terminologies/ValueSet-jdv-statut-tabagique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-statut-tabagique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251028115833</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-10-28T11:58:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,19 +102,19 @@
     <t>449868002</t>
   </si>
   <si>
-    <t>fumeur(-euse) quotidien(ne)</t>
+    <t>fume quotidiennement</t>
   </si>
   <si>
     <t>428041000124106</t>
   </si>
   <si>
-    <t>fumeur(-euse) occasionnel(le)</t>
+    <t>fume occasionnellement</t>
   </si>
   <si>
     <t>8517006</t>
   </si>
   <si>
-    <t>ancien(ne) fumeur(-euse)</t>
+    <t>ne fume plus</t>
   </si>
   <si>
     <t>266919005</t>
@@ -126,19 +126,19 @@
     <t>266927001</t>
   </si>
   <si>
-    <t>Tobacco smoking consumption unknown</t>
+    <t>consommation de tabac inconnue</t>
   </si>
   <si>
     <t>56771006</t>
   </si>
   <si>
-    <t>gros(se) fumeur(-euse) (plus de 20 cigarettes par jour)</t>
+    <t>fume plus de 20 fois par jour</t>
   </si>
   <si>
     <t>56578002</t>
   </si>
   <si>
-    <t>fumeur(-euse) modéré(e) (20 cigarettes ou moins par jour)</t>
+    <t>fume 20 fois ou moins par jour</t>
   </si>
   <si>
     <t/>

--- a/www/terminologies/ValueSet-jdv-statut-tabagique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-statut-tabagique-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115833</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:33+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
